--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Cxcl17</t>
-  </si>
-  <si>
-    <t>Gpr35</t>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -92,6 +89,15 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
+    <t>Cxcl17</t>
+  </si>
+  <si>
+    <t>Gpr35</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.175040851219112</v>
+        <v>0.1790393333333333</v>
       </c>
       <c r="H2">
-        <v>0.175040851219112</v>
+        <v>0.537118</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2244506346336909</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2244506346336909</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.100732426092737</v>
+        <v>0.1125986666666667</v>
       </c>
       <c r="N2">
-        <v>0.100732426092737</v>
+        <v>0.337796</v>
       </c>
       <c r="O2">
-        <v>0.00076819337748865</v>
+        <v>0.000719320687134091</v>
       </c>
       <c r="P2">
-        <v>0.00076819337748865</v>
+        <v>0.0007193206871340909</v>
       </c>
       <c r="Q2">
-        <v>0.01763228960863897</v>
+        <v>0.02015959021422222</v>
       </c>
       <c r="R2">
-        <v>0.01763228960863897</v>
+        <v>0.181436311928</v>
       </c>
       <c r="S2">
-        <v>0.00076819337748865</v>
+        <v>0.0001614519847323894</v>
       </c>
       <c r="T2">
-        <v>0.00076819337748865</v>
+        <v>0.0001614519847323894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.175040851219112</v>
+        <v>0.1790393333333333</v>
       </c>
       <c r="H3">
-        <v>0.175040851219112</v>
+        <v>0.537118</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2244506346336909</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2244506346336909</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>29.8901324361956</v>
+        <v>0.9748443333333334</v>
       </c>
       <c r="N3">
-        <v>29.8901324361956</v>
+        <v>2.924533</v>
       </c>
       <c r="O3">
-        <v>0.2279444929540887</v>
+        <v>0.00622765541068078</v>
       </c>
       <c r="P3">
-        <v>0.2279444929540887</v>
+        <v>0.00622765541068078</v>
       </c>
       <c r="Q3">
-        <v>5.231994224683667</v>
+        <v>0.1745354795437778</v>
       </c>
       <c r="R3">
-        <v>5.231994224683667</v>
+        <v>1.570819315894</v>
       </c>
       <c r="S3">
-        <v>0.2279444929540887</v>
+        <v>0.00139780120920724</v>
       </c>
       <c r="T3">
-        <v>0.2279444929540887</v>
+        <v>0.00139780120920724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.175040851219112</v>
+        <v>0.1790393333333333</v>
       </c>
       <c r="H4">
-        <v>0.175040851219112</v>
+        <v>0.537118</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2244506346336909</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2244506346336909</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.1333148627951</v>
+        <v>42.206532</v>
       </c>
       <c r="N4">
-        <v>41.1333148627951</v>
+        <v>126.619596</v>
       </c>
       <c r="O4">
-        <v>0.3136858834578686</v>
+        <v>0.269630471643717</v>
       </c>
       <c r="P4">
-        <v>0.3136858834578686</v>
+        <v>0.269630471643717</v>
       </c>
       <c r="Q4">
-        <v>7.200010447047406</v>
+        <v>7.556629351592</v>
       </c>
       <c r="R4">
-        <v>7.200010447047406</v>
+        <v>68.009664164328</v>
       </c>
       <c r="S4">
-        <v>0.3136858834578686</v>
+        <v>0.06051873047701368</v>
       </c>
       <c r="T4">
-        <v>0.3136858834578686</v>
+        <v>0.06051873047701368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,2045 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1790393333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.537118</v>
+      </c>
+      <c r="I5">
+        <v>0.2244506346336909</v>
+      </c>
+      <c r="J5">
+        <v>0.2244506346336909</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>48.45537766666666</v>
+      </c>
+      <c r="N5">
+        <v>145.366133</v>
+      </c>
+      <c r="O5">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="P5">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="Q5">
+        <v>8.675418513854888</v>
+      </c>
+      <c r="R5">
+        <v>78.078766624694</v>
+      </c>
+      <c r="S5">
+        <v>0.06947877028065011</v>
+      </c>
+      <c r="T5">
+        <v>0.06947877028065011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1790393333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.537118</v>
+      </c>
+      <c r="I6">
+        <v>0.2244506346336909</v>
+      </c>
+      <c r="J6">
+        <v>0.2244506346336909</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>64.575901</v>
+      </c>
+      <c r="N6">
+        <v>193.727703</v>
+      </c>
+      <c r="O6">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="P6">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="Q6">
+        <v>11.56162626443933</v>
+      </c>
+      <c r="R6">
+        <v>104.054636379954</v>
+      </c>
+      <c r="S6">
+        <v>0.09259352433716463</v>
+      </c>
+      <c r="T6">
+        <v>0.09259352433716463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1790393333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.537118</v>
+      </c>
+      <c r="I7">
+        <v>0.2244506346336909</v>
+      </c>
+      <c r="J7">
+        <v>0.2244506346336909</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2094723333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.628417</v>
+      </c>
+      <c r="O7">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="P7">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="Q7">
+        <v>0.03750378691177778</v>
+      </c>
+      <c r="R7">
+        <v>0.337534082206</v>
+      </c>
+      <c r="S7">
+        <v>0.0003003563449228941</v>
+      </c>
+      <c r="T7">
+        <v>0.0003003563449228941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.07944133333333332</v>
+      </c>
+      <c r="H8">
+        <v>0.238324</v>
+      </c>
+      <c r="I8">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="J8">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1125986666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.337796</v>
+      </c>
+      <c r="O8">
+        <v>0.000719320687134091</v>
+      </c>
+      <c r="P8">
+        <v>0.0007193206871340909</v>
+      </c>
+      <c r="Q8">
+        <v>0.008944988211555554</v>
+      </c>
+      <c r="R8">
+        <v>0.08050489390399999</v>
+      </c>
+      <c r="S8">
+        <v>7.163767144158632E-05</v>
+      </c>
+      <c r="T8">
+        <v>7.163767144158631E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.07944133333333332</v>
+      </c>
+      <c r="H9">
+        <v>0.238324</v>
+      </c>
+      <c r="I9">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="J9">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.9748443333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.924533</v>
+      </c>
+      <c r="O9">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="P9">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="Q9">
+        <v>0.07744293363244444</v>
+      </c>
+      <c r="R9">
+        <v>0.696986402692</v>
+      </c>
+      <c r="S9">
+        <v>0.0006202167407964474</v>
+      </c>
+      <c r="T9">
+        <v>0.0006202167407964474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.07944133333333332</v>
+      </c>
+      <c r="H10">
+        <v>0.238324</v>
+      </c>
+      <c r="I10">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="J10">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>42.206532</v>
+      </c>
+      <c r="N10">
+        <v>126.619596</v>
+      </c>
+      <c r="O10">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="P10">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="Q10">
+        <v>3.352943177456</v>
+      </c>
+      <c r="R10">
+        <v>30.176488597104</v>
+      </c>
+      <c r="S10">
+        <v>0.02685269516605998</v>
+      </c>
+      <c r="T10">
+        <v>0.02685269516605998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.07944133333333332</v>
+      </c>
+      <c r="H11">
+        <v>0.238324</v>
+      </c>
+      <c r="I11">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="J11">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>48.45537766666666</v>
+      </c>
+      <c r="N11">
+        <v>145.366133</v>
+      </c>
+      <c r="O11">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="P11">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="Q11">
+        <v>3.849359809010221</v>
+      </c>
+      <c r="R11">
+        <v>34.64423828109199</v>
+      </c>
+      <c r="S11">
+        <v>0.03082834395489567</v>
+      </c>
+      <c r="T11">
+        <v>0.03082834395489567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.07944133333333332</v>
+      </c>
+      <c r="H12">
+        <v>0.238324</v>
+      </c>
+      <c r="I12">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="J12">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>64.575901</v>
+      </c>
+      <c r="N12">
+        <v>193.727703</v>
+      </c>
+      <c r="O12">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="P12">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="Q12">
+        <v>5.129995676641332</v>
+      </c>
+      <c r="R12">
+        <v>46.169961089772</v>
+      </c>
+      <c r="S12">
+        <v>0.0410845644609386</v>
+      </c>
+      <c r="T12">
+        <v>0.0410845644609386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.175040851219112</v>
-      </c>
-      <c r="H5">
-        <v>0.175040851219112</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>60.0048159739524</v>
-      </c>
-      <c r="N5">
-        <v>60.0048159739524</v>
-      </c>
-      <c r="O5">
-        <v>0.4576014302105541</v>
-      </c>
-      <c r="P5">
-        <v>0.4576014302105541</v>
-      </c>
-      <c r="Q5">
-        <v>10.5032940653268</v>
-      </c>
-      <c r="R5">
-        <v>10.5032940653268</v>
-      </c>
-      <c r="S5">
-        <v>0.4576014302105541</v>
-      </c>
-      <c r="T5">
-        <v>0.4576014302105541</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.07944133333333332</v>
+      </c>
+      <c r="H13">
+        <v>0.238324</v>
+      </c>
+      <c r="I13">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="J13">
+        <v>0.0995907287568835</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2094723333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.628417</v>
+      </c>
+      <c r="O13">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="P13">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="Q13">
+        <v>0.01664076145644444</v>
+      </c>
+      <c r="R13">
+        <v>0.149766853108</v>
+      </c>
+      <c r="S13">
+        <v>0.0001332707627512089</v>
+      </c>
+      <c r="T13">
+        <v>0.0001332707627512088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.04418666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.13256</v>
+      </c>
+      <c r="I14">
+        <v>0.05539411475139928</v>
+      </c>
+      <c r="J14">
+        <v>0.05539411475139927</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1125986666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.337796</v>
+      </c>
+      <c r="O14">
+        <v>0.000719320687134091</v>
+      </c>
+      <c r="P14">
+        <v>0.0007193206871340909</v>
+      </c>
+      <c r="Q14">
+        <v>0.004975359751111112</v>
+      </c>
+      <c r="R14">
+        <v>0.04477823776</v>
+      </c>
+      <c r="S14">
+        <v>3.984613268616122E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.98461326861612E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.04418666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.13256</v>
+      </c>
+      <c r="I15">
+        <v>0.05539411475139928</v>
+      </c>
+      <c r="J15">
+        <v>0.05539411475139927</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.9748443333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.924533</v>
+      </c>
+      <c r="O15">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="P15">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="Q15">
+        <v>0.0430751216088889</v>
+      </c>
+      <c r="R15">
+        <v>0.3876760944800001</v>
+      </c>
+      <c r="S15">
+        <v>0.0003449754584514237</v>
+      </c>
+      <c r="T15">
+        <v>0.0003449754584514237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.04418666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.13256</v>
+      </c>
+      <c r="I16">
+        <v>0.05539411475139928</v>
+      </c>
+      <c r="J16">
+        <v>0.05539411475139927</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>42.206532</v>
+      </c>
+      <c r="N16">
+        <v>126.619596</v>
+      </c>
+      <c r="O16">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="P16">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="Q16">
+        <v>1.86496596064</v>
+      </c>
+      <c r="R16">
+        <v>16.78469364576</v>
+      </c>
+      <c r="S16">
+        <v>0.01493594128670597</v>
+      </c>
+      <c r="T16">
+        <v>0.01493594128670596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.04418666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.13256</v>
+      </c>
+      <c r="I17">
+        <v>0.05539411475139928</v>
+      </c>
+      <c r="J17">
+        <v>0.05539411475139927</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>48.45537766666666</v>
+      </c>
+      <c r="N17">
+        <v>145.366133</v>
+      </c>
+      <c r="O17">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="P17">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="Q17">
+        <v>2.141081621164445</v>
+      </c>
+      <c r="R17">
+        <v>19.26973459048</v>
+      </c>
+      <c r="S17">
+        <v>0.01714726705938542</v>
+      </c>
+      <c r="T17">
+        <v>0.01714726705938542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.04418666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.13256</v>
+      </c>
+      <c r="I18">
+        <v>0.05539411475139928</v>
+      </c>
+      <c r="J18">
+        <v>0.05539411475139927</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>64.575901</v>
+      </c>
+      <c r="N18">
+        <v>193.727703</v>
+      </c>
+      <c r="O18">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="P18">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="Q18">
+        <v>2.853393812186667</v>
+      </c>
+      <c r="R18">
+        <v>25.68054430968001</v>
+      </c>
+      <c r="S18">
+        <v>0.02285195727220936</v>
+      </c>
+      <c r="T18">
+        <v>0.02285195727220935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.04418666666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.13256</v>
+      </c>
+      <c r="I19">
+        <v>0.05539411475139928</v>
+      </c>
+      <c r="J19">
+        <v>0.05539411475139927</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.2094723333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.628417</v>
+      </c>
+      <c r="O19">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="P19">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="Q19">
+        <v>0.009255884168888891</v>
+      </c>
+      <c r="R19">
+        <v>0.08330295752000001</v>
+      </c>
+      <c r="S19">
+        <v>7.4127541960945E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.412754196094497E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.002351</v>
+      </c>
+      <c r="H20">
+        <v>0.007053</v>
+      </c>
+      <c r="I20">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="J20">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1125986666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.337796</v>
+      </c>
+      <c r="O20">
+        <v>0.000719320687134091</v>
+      </c>
+      <c r="P20">
+        <v>0.0007193206871340909</v>
+      </c>
+      <c r="Q20">
+        <v>0.0002647194653333333</v>
+      </c>
+      <c r="R20">
+        <v>0.002382475188</v>
+      </c>
+      <c r="S20">
+        <v>2.120057135150083E-06</v>
+      </c>
+      <c r="T20">
+        <v>2.120057135150083E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.002351</v>
+      </c>
+      <c r="H21">
+        <v>0.007053</v>
+      </c>
+      <c r="I21">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="J21">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.9748443333333334</v>
+      </c>
+      <c r="N21">
+        <v>2.924533</v>
+      </c>
+      <c r="O21">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="P21">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="Q21">
+        <v>0.002291859027666667</v>
+      </c>
+      <c r="R21">
+        <v>0.020626731249</v>
+      </c>
+      <c r="S21">
+        <v>1.835479713682779E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.835479713682779E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.002351</v>
+      </c>
+      <c r="H22">
+        <v>0.007053</v>
+      </c>
+      <c r="I22">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="J22">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>42.206532</v>
+      </c>
+      <c r="N22">
+        <v>126.619596</v>
+      </c>
+      <c r="O22">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="P22">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="Q22">
+        <v>0.09922755673200001</v>
+      </c>
+      <c r="R22">
+        <v>0.8930480105880001</v>
+      </c>
+      <c r="S22">
+        <v>0.0007946831162879991</v>
+      </c>
+      <c r="T22">
+        <v>0.0007946831162879991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.002351</v>
+      </c>
+      <c r="H23">
+        <v>0.007053</v>
+      </c>
+      <c r="I23">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="J23">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>48.45537766666666</v>
+      </c>
+      <c r="N23">
+        <v>145.366133</v>
+      </c>
+      <c r="O23">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="P23">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="Q23">
+        <v>0.1139185928943333</v>
+      </c>
+      <c r="R23">
+        <v>1.025267336049</v>
+      </c>
+      <c r="S23">
+        <v>0.0009123391262058342</v>
+      </c>
+      <c r="T23">
+        <v>0.0009123391262058342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.002351</v>
+      </c>
+      <c r="H24">
+        <v>0.007053</v>
+      </c>
+      <c r="I24">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="J24">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>64.575901</v>
+      </c>
+      <c r="N24">
+        <v>193.727703</v>
+      </c>
+      <c r="O24">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="P24">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="Q24">
+        <v>0.151817943251</v>
+      </c>
+      <c r="R24">
+        <v>1.366361489259</v>
+      </c>
+      <c r="S24">
+        <v>0.001215863417628942</v>
+      </c>
+      <c r="T24">
+        <v>0.001215863417628942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.002351</v>
+      </c>
+      <c r="H25">
+        <v>0.007053</v>
+      </c>
+      <c r="I25">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="J25">
+        <v>0.002947304551460615</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.2094723333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.628417</v>
+      </c>
+      <c r="O25">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="P25">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="Q25">
+        <v>0.0004924694556666668</v>
+      </c>
+      <c r="R25">
+        <v>0.004432225101000001</v>
+      </c>
+      <c r="S25">
+        <v>3.944037065861082E-06</v>
+      </c>
+      <c r="T25">
+        <v>3.944037065861081E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2555203333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.766561</v>
+      </c>
+      <c r="I26">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="J26">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1125986666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.337796</v>
+      </c>
+      <c r="O26">
+        <v>0.000719320687134091</v>
+      </c>
+      <c r="P26">
+        <v>0.0007193206871340909</v>
+      </c>
+      <c r="Q26">
+        <v>0.02877124883955556</v>
+      </c>
+      <c r="R26">
+        <v>0.258941239556</v>
+      </c>
+      <c r="S26">
+        <v>0.0002304201215904981</v>
+      </c>
+      <c r="T26">
+        <v>0.000230420121590498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.2555203333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.766561</v>
+      </c>
+      <c r="I27">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="J27">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.9748443333333334</v>
+      </c>
+      <c r="N27">
+        <v>2.924533</v>
+      </c>
+      <c r="O27">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="P27">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="Q27">
+        <v>0.2490925490014445</v>
+      </c>
+      <c r="R27">
+        <v>2.241832941013</v>
+      </c>
+      <c r="S27">
+        <v>0.001994905947540599</v>
+      </c>
+      <c r="T27">
+        <v>0.001994905947540599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.2555203333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.766561</v>
+      </c>
+      <c r="I28">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="J28">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>42.206532</v>
+      </c>
+      <c r="N28">
+        <v>126.619596</v>
+      </c>
+      <c r="O28">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="P28">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="Q28">
+        <v>10.784627125484</v>
+      </c>
+      <c r="R28">
+        <v>97.06164412935601</v>
+      </c>
+      <c r="S28">
+        <v>0.08637077616685736</v>
+      </c>
+      <c r="T28">
+        <v>0.08637077616685736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.2555203333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.766561</v>
+      </c>
+      <c r="I29">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="J29">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>48.45537766666666</v>
+      </c>
+      <c r="N29">
+        <v>145.366133</v>
+      </c>
+      <c r="O29">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="P29">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="Q29">
+        <v>12.38133425317922</v>
+      </c>
+      <c r="R29">
+        <v>111.432008278613</v>
+      </c>
+      <c r="S29">
+        <v>0.09915831460704246</v>
+      </c>
+      <c r="T29">
+        <v>0.09915831460704246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.2555203333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.766561</v>
+      </c>
+      <c r="I30">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="J30">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>64.575901</v>
+      </c>
+      <c r="N30">
+        <v>193.727703</v>
+      </c>
+      <c r="O30">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="P30">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="Q30">
+        <v>16.50045574882034</v>
+      </c>
+      <c r="R30">
+        <v>148.504101739383</v>
+      </c>
+      <c r="S30">
+        <v>0.1321470973034254</v>
+      </c>
+      <c r="T30">
+        <v>0.1321470973034254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.2555203333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.766561</v>
+      </c>
+      <c r="I31">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="J31">
+        <v>0.320330174999603</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.2094723333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.628417</v>
+      </c>
+      <c r="O31">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="P31">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="Q31">
+        <v>0.05352444043744445</v>
+      </c>
+      <c r="R31">
+        <v>0.481719963937</v>
+      </c>
+      <c r="S31">
+        <v>0.0004286608531466804</v>
+      </c>
+      <c r="T31">
+        <v>0.0004286608531466803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.2371393333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.711418</v>
+      </c>
+      <c r="I32">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="J32">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.1125986666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.337796</v>
+      </c>
+      <c r="O32">
+        <v>0.000719320687134091</v>
+      </c>
+      <c r="P32">
+        <v>0.0007193206871340909</v>
+      </c>
+      <c r="Q32">
+        <v>0.02670157274755556</v>
+      </c>
+      <c r="R32">
+        <v>0.240314154728</v>
+      </c>
+      <c r="S32">
+        <v>0.0002138447195483059</v>
+      </c>
+      <c r="T32">
+        <v>0.0002138447195483059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.2371393333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.711418</v>
+      </c>
+      <c r="I33">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="J33">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.9748443333333334</v>
+      </c>
+      <c r="N33">
+        <v>2.924533</v>
+      </c>
+      <c r="O33">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="P33">
+        <v>0.00622765541068078</v>
+      </c>
+      <c r="Q33">
+        <v>0.2311739353104445</v>
+      </c>
+      <c r="R33">
+        <v>2.080565417794</v>
+      </c>
+      <c r="S33">
+        <v>0.001851401257548242</v>
+      </c>
+      <c r="T33">
+        <v>0.001851401257548242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.2371393333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.711418</v>
+      </c>
+      <c r="I34">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="J34">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>42.206532</v>
+      </c>
+      <c r="N34">
+        <v>126.619596</v>
+      </c>
+      <c r="O34">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="P34">
+        <v>0.269630471643717</v>
+      </c>
+      <c r="Q34">
+        <v>10.008828860792</v>
+      </c>
+      <c r="R34">
+        <v>90.07945974712801</v>
+      </c>
+      <c r="S34">
+        <v>0.08015764543079197</v>
+      </c>
+      <c r="T34">
+        <v>0.08015764543079197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.2371393333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.711418</v>
+      </c>
+      <c r="I35">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="J35">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>48.45537766666666</v>
+      </c>
+      <c r="N35">
+        <v>145.366133</v>
+      </c>
+      <c r="O35">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="P35">
+        <v>0.3095503400738483</v>
+      </c>
+      <c r="Q35">
+        <v>11.49067595628822</v>
+      </c>
+      <c r="R35">
+        <v>103.416083606594</v>
+      </c>
+      <c r="S35">
+        <v>0.0920253050456688</v>
+      </c>
+      <c r="T35">
+        <v>0.0920253050456688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.2371393333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.711418</v>
+      </c>
+      <c r="I36">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="J36">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>64.575901</v>
+      </c>
+      <c r="N36">
+        <v>193.727703</v>
+      </c>
+      <c r="O36">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="P36">
+        <v>0.4125340277530495</v>
+      </c>
+      <c r="Q36">
+        <v>15.31348611253933</v>
+      </c>
+      <c r="R36">
+        <v>137.821375012854</v>
+      </c>
+      <c r="S36">
+        <v>0.1226410209616825</v>
+      </c>
+      <c r="T36">
+        <v>0.1226410209616825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.2371393333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.711418</v>
+      </c>
+      <c r="I37">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="J37">
+        <v>0.2972870423069626</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.2094723333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.628417</v>
+      </c>
+      <c r="O37">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="P37">
+        <v>0.001338184431570368</v>
+      </c>
+      <c r="Q37">
+        <v>0.04967412947844445</v>
+      </c>
+      <c r="R37">
+        <v>0.447067165306</v>
+      </c>
+      <c r="S37">
+        <v>0.0003978248917227788</v>
+      </c>
+      <c r="T37">
+        <v>0.0003978248917227788</v>
       </c>
     </row>
   </sheetData>
